--- a/src/assets/matrials.xlsx
+++ b/src/assets/matrials.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
